--- a/Test/teil1.xlsx
+++ b/Test/teil1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinwolf/Python/Superdepot Reporting/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52F5DDF7-FDC7-094F-857B-C83411ECD7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572CCA8C-91AE-914A-B29F-49701D827EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="2840" windowWidth="22820" windowHeight="14440" xr2:uid="{68F6AEE0-8CF3-B846-B646-A3115EC59474}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="75">
   <si>
     <t>Transfer Order Number</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Act.qty (dest)</t>
   </si>
   <si>
-    <t>993869</t>
-  </si>
-  <si>
     <t>10131234</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>G7B01</t>
+  </si>
+  <si>
+    <t>111111</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -343,6 +343,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,7 +664,7 @@
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,35 +759,35 @@
       </c>
     </row>
     <row r="2" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
+      <c r="A2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1233</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="H2" s="4">
         <v>35</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K2" s="5">
         <v>0.34267361111111</v>
@@ -796,13 +799,13 @@
         <v>44652</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="Q2" s="5">
         <v>0.34240740740740999</v>
@@ -814,28 +817,28 @@
         <v>44652</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="W2" s="4">
         <v>35</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB2" s="4">
         <v>0</v>
@@ -846,34 +849,34 @@
     </row>
     <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H3" s="4">
         <v>35</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K3" s="5">
         <v>0.34358796296296001</v>
@@ -885,13 +888,13 @@
         <v>44652</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="Q3" s="5">
         <v>0.34346064814815003</v>
@@ -903,28 +906,28 @@
         <v>44652</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="W3" s="4">
         <v>35</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB3" s="4">
         <v>0</v>
@@ -935,34 +938,34 @@
     </row>
     <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7">
         <v>43.75</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="5">
         <v>0.33517361111110999</v>
@@ -974,13 +977,13 @@
         <v>44652</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="Q4" s="5">
         <v>0.33517361111110999</v>
@@ -992,28 +995,28 @@
         <v>44652</v>
       </c>
       <c r="T4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="W4" s="7">
         <v>43.75</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB4" s="7">
         <v>0</v>
@@ -1024,34 +1027,34 @@
     </row>
     <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="H5" s="4">
         <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K5" s="5">
         <v>0.34065972222222002</v>
@@ -1063,13 +1066,13 @@
         <v>44652</v>
       </c>
       <c r="N5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="Q5" s="5">
         <v>0.34049768518519002</v>
@@ -1081,28 +1084,28 @@
         <v>44652</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W5" s="4">
         <v>35</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB5" s="4">
         <v>0</v>
@@ -1113,34 +1116,34 @@
     </row>
     <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H6" s="4">
         <v>20</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="5">
         <v>0.43649305555556001</v>
@@ -1152,13 +1155,13 @@
         <v>44652</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="Q6" s="5">
         <v>0.43635416666666998</v>
@@ -1170,28 +1173,28 @@
         <v>44652</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W6" s="4">
         <v>20</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB6" s="4">
         <v>0</v>
@@ -1202,34 +1205,34 @@
     </row>
     <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="H7" s="4">
         <v>20</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="5">
         <v>0.43822916666667</v>
@@ -1241,13 +1244,13 @@
         <v>44652</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="Q7" s="5">
         <v>0.4380787037037</v>
@@ -1259,28 +1262,28 @@
         <v>44652</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W7" s="4">
         <v>20</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB7" s="4">
         <v>0</v>
@@ -1291,34 +1294,34 @@
     </row>
     <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="H8" s="4">
         <v>17</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K8" s="5">
         <v>0.54163194444443996</v>
@@ -1330,13 +1333,13 @@
         <v>44652</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="5">
         <v>0.54163194444443996</v>
@@ -1348,28 +1351,28 @@
         <v>44652</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="W8" s="4">
         <v>17</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB8" s="4">
         <v>0</v>
@@ -1380,34 +1383,34 @@
     </row>
     <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>84</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" s="5">
         <v>0.72901620370370002</v>
@@ -1419,13 +1422,13 @@
         <v>44652</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="5">
         <v>0.72901620370370002</v>
@@ -1437,28 +1440,28 @@
         <v>44652</v>
       </c>
       <c r="T9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="W9" s="7">
         <v>84</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB9" s="7">
         <v>0</v>
@@ -1469,34 +1472,34 @@
     </row>
     <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="H10" s="4">
         <v>35</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K10" s="5">
         <v>0.34001157407407001</v>
@@ -1508,13 +1511,13 @@
         <v>44652</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="Q10" s="5">
         <v>0.33984953703704002</v>
@@ -1526,28 +1529,28 @@
         <v>44652</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W10" s="4">
         <v>35</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB10" s="4">
         <v>0</v>
@@ -1558,34 +1561,34 @@
     </row>
     <row r="11" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="4">
         <v>35</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K11" s="5">
         <v>0.34230324074073998</v>
@@ -1597,13 +1600,13 @@
         <v>44652</v>
       </c>
       <c r="N11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="Q11" s="5">
         <v>0.34217592592592999</v>
@@ -1615,28 +1618,28 @@
         <v>44652</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="W11" s="4">
         <v>35</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB11" s="4">
         <v>0</v>
@@ -1647,34 +1650,34 @@
     </row>
     <row r="12" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="H12" s="4">
         <v>35</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="K12" s="5">
         <v>0.34474537037037001</v>
@@ -1686,13 +1689,13 @@
         <v>44652</v>
       </c>
       <c r="N12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="Q12" s="5">
         <v>0.34453703703703997</v>
@@ -1704,28 +1707,28 @@
         <v>44652</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W12" s="4">
         <v>35</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB12" s="4">
         <v>0</v>
